--- a/sidang/pendaftaransidang.xlsx
+++ b/sidang/pendaftaransidang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Kordinator\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41CE94A-023C-4D2B-ABDC-8C07B97FD0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6FF7C6-2C38-4236-B8D0-3B290466CD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E58E042A-7599-40B2-8E3D-8AA1217BD0E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{E58E042A-7599-40B2-8E3D-8AA1217BD0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Bukti Submit Artikel Pengabdian Masyarakat</t>
   </si>
   <si>
-    <t>URL Google Books</t>
-  </si>
-  <si>
     <t>URL Bukti Penyelesaian Revisi</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Presentase Pengerjaan</t>
+  </si>
+  <si>
+    <t>URL Google Book yang sudah ber ISBN</t>
   </si>
 </sst>
 </file>
@@ -249,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,7 +259,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027F7EEA-7566-47F2-B8F6-C6204D0A8B8E}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,7 +587,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -713,12 +713,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2">
         <f>SUM(E7:E10)</f>
         <v>0</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2">
         <f>SUM(E7:E10)</f>
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A5BDE4-8268-42B9-B302-7511234BC012}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -990,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
     </row>
